--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26615.33650036409</v>
+        <v>23883.7570385397</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>35.26854844897986</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>372.0594140835327</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>61.3547857865363</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>287.2556392399381</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>36.86740133315055</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>194.513007553545</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>228.5784446609401</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>83.05158760959891</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>15.72759560245137</v>
       </c>
       <c r="F7" t="n">
-        <v>76.13478216561077</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>108.5261913756037</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>381.0377748748714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>143.5350832659248</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>228.5309204614415</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>220.4289331391115</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>128.3548363691463</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462247</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.30974811734212</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.74007641194018</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>62.18842302760083</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>101.0545458193598</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>108.6115798077509</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>105.3305008047038</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>99.86023999965182</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.24347904696366</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="38">
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.712458167646</v>
+        <v>1071.983467129807</v>
       </c>
       <c r="C2" t="n">
-        <v>1249.712458167646</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>891.4467595608955</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>505.6585069626513</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>129.840916979285</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>115.9175129178759</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>115.9175129178759</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2188.357212636812</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1835.588557366698</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1462.122799105618</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1071.983467129807</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.18278114677915</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>91.18278114677915</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>91.18278114677915</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>91.18278114677915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>91.18278114677915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>91.18278114677915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>272.8312459770189</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.8312459770189</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1799.240431121866</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1440.974732515116</v>
       </c>
       <c r="E5" t="n">
         <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V5" t="n">
-        <v>2339.59524198583</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W5" t="n">
-        <v>1986.826586715716</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>1986.826586715716</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y5" t="n">
-        <v>1596.687254739904</v>
+        <v>2168.202948062278</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4665,28 +4665,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694738</v>
+        <v>216.7193895227711</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694738</v>
+        <v>216.7193895227711</v>
       </c>
       <c r="D7" t="n">
-        <v>288.5951747571381</v>
+        <v>216.7193895227711</v>
       </c>
       <c r="E7" t="n">
-        <v>288.5951747571381</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>471.403877728658</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>471.403877728658</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>216.7193895227711</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>216.7193895227711</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>216.7193895227711</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>216.7193895227711</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.028036199279</v>
+        <v>1688.895271141336</v>
       </c>
       <c r="C8" t="n">
-        <v>1586.028036199279</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="D8" t="n">
-        <v>1586.028036199279</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1094.463253419559</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>1475.496879136949</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2451.973130243321</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2587.526675487309</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2372.72681375502</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2372.72681375502</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2041.66392641145</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1688.895271141336</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1688.895271141336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1586.028036199279</v>
+        <v>1688.895271141336</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>924.0689295613406</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1591.613329588351</v>
       </c>
       <c r="O9" t="n">
-        <v>2093.514403512715</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>391.486009752888</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>222.549826824981</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>222.549826824981</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.549826824981</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.549826824981</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>908.8927306878659</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>908.8927306878659</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>908.8927306878659</v>
       </c>
       <c r="V10" t="n">
-        <v>823.0383496822935</v>
+        <v>908.8927306878659</v>
       </c>
       <c r="W10" t="n">
-        <v>533.621179645333</v>
+        <v>619.4755606509053</v>
       </c>
       <c r="X10" t="n">
-        <v>533.621179645333</v>
+        <v>391.486009752888</v>
       </c>
       <c r="Y10" t="n">
-        <v>533.621179645333</v>
+        <v>391.486009752888</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,10 +5048,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5261,13 +5261,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5279,7 +5279,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2273.199413378161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>718.5507239167119</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>549.6145409888051</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888051</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888051</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908947</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057746</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5716,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>900.1991887469517</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.73118040114</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2384.146494663492</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2201.291660318396</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1981.690195341337</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1692.614968685535</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1437.930480479648</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1148.513310442687</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>920.5237595446702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.73118040114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2344.887784772826</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U25" t="n">
-        <v>1867.752414038033</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V25" t="n">
-        <v>1613.067925832146</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W25" t="n">
-        <v>1323.650755795185</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X25" t="n">
-        <v>1095.661204897168</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.8686257536381</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="26">
@@ -6230,16 +6230,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856862</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>639.9526724577793</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>489.8360330454435</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>341.9229394630504</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>341.9229394630504</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>763.7541388327652</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>613.6374994204294</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>465.7244058380363</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>318.8344583401259</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>151.6383590550059</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6929,34 +6929,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,25 +7175,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7357,7 +7357,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
         <v>2035.268256189238</v>
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908939</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7740,10 +7740,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714818</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747027</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,16 +8456,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284443</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>275.3456371407393</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>473.6238973478235</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>232.8092651141195</v>
       </c>
       <c r="P9" t="n">
-        <v>205.4248001625372</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-8.662800427474421e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90.57653045832495</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>40.49661923019679</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>66.09406519747947</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.2749052347527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.186823682520853</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>79.9717401822848</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>177.5728945814932</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>60.19363748756501</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>79.97174018228547</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.05123379926019</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="38">
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26317,19 +26317,19 @@
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="F2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="F2" t="n">
-        <v>322858.6398760023</v>
-      </c>
       <c r="G2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760024</v>
@@ -26338,22 +26338,22 @@
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="L2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="M2" t="n">
         <v>322858.6398760025</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="M2" t="n">
-        <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
     </row>
     <row r="3">
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682749</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682751</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-541600.7232488528</v>
+        <v>-541787.1166373917</v>
       </c>
       <c r="C6" t="n">
-        <v>35635.21441927046</v>
+        <v>35635.21441927043</v>
       </c>
       <c r="D6" t="n">
-        <v>-120168.5916745245</v>
+        <v>-120168.5916745243</v>
       </c>
       <c r="E6" t="n">
-        <v>-554994.1178953939</v>
+        <v>-555028.8558208293</v>
       </c>
       <c r="F6" t="n">
-        <v>216058.5734854125</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="G6" t="n">
-        <v>216058.5734854125</v>
+        <v>216023.8355599768</v>
       </c>
       <c r="H6" t="n">
-        <v>216058.5734854127</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="I6" t="n">
-        <v>216058.5734854124</v>
+        <v>216023.8355599768</v>
       </c>
       <c r="J6" t="n">
-        <v>39635.35429281979</v>
+        <v>39600.61636738386</v>
       </c>
       <c r="K6" t="n">
-        <v>216058.5734854125</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="L6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.8355599769</v>
       </c>
       <c r="M6" t="n">
-        <v>91850.06277735425</v>
+        <v>91815.32485191841</v>
       </c>
       <c r="N6" t="n">
-        <v>216058.5734854125</v>
+        <v>216023.835559977</v>
       </c>
       <c r="O6" t="n">
-        <v>216058.5734854125</v>
+        <v>216023.835559977</v>
       </c>
       <c r="P6" t="n">
-        <v>216058.5734854126</v>
+        <v>216023.8355599768</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26978,16 +26978,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>330.0043433220277</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>34.81663165817878</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>119.3034875086446</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>24.07164579854984</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>153.3519254113216</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>244.700670860536</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>130.7063670441178</v>
       </c>
       <c r="F7" t="n">
-        <v>69.28626585732047</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>46.12669575253651</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.200163781182141</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28059,7 +28059,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>61.8307986341938</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28068,13 +28068,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>23.60672286238653</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,16 +32078,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,10 +33026,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33263,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,34 +33494,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34951,7 +34951,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116789</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.3752747153553</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297102</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>471.6428218801154</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>68.29072693268387</v>
@@ -35258,16 +35258,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>393.9328132643827</v>
       </c>
       <c r="P9" t="n">
-        <v>315.2123027153643</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35428,7 +35428,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35656,7 +35656,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
